--- a/bh3/545410161686793776_2021-07-09_18-29-59.xlsx
+++ b/bh3/545410161686793776_2021-07-09_18-29-59.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4892223098</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-12 10:32:24</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44389.43916666666</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-12 10:27:10</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44389.43553240741</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -665,10 +677,8 @@
           <t>4875223452</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-12 07:28:57</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44389.31177083333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -736,10 +746,8 @@
           <t>4874749423</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:04:09</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44388.71121527778</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -807,10 +815,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:32:08</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44388.68898148148</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -878,10 +884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:41:03</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44388.48684027778</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -945,10 +949,8 @@
           <t>4878362808</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:16:43</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.3866087963</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1016,10 +1018,8 @@
           <t>4875668858</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:54:57</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44387.99649305556</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1096,10 +1096,8 @@
           <t>4875668858</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:59:37</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44387.95806712963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1163,10 +1161,8 @@
           <t>4875668858</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:44:31</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44387.94758101852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1242,10 +1238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:47:21</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44387.90788194445</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1321,10 +1315,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:42</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44387.895625</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1396,10 +1388,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44387.89243055556</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1471,10 +1461,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:22:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44387.89039351852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1546,10 +1534,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:18:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44387.8878587963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1609,10 +1595,8 @@
           <t>4874776405</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 18:11:04</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.75768518518</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1688,10 +1672,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:13:54</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.71798611111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1763,10 +1745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:07:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.71327546296</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1843,10 +1823,8 @@
           <t>4880663800</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 17:00:14</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.70849537037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1906,10 +1884,8 @@
           <t>4880576582</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 16:43:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.69706018519</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1973,10 +1949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:39:42</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.65256944444</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2048,10 +2022,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:08:41</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.63103009259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2127,10 +2099,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:05:23</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.62873842593</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2198,10 +2168,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:04:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.62810185185</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2269,10 +2237,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 15:02:28</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.62671296296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2363,10 +2329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 14:59:28</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.62462962963</v>
       </c>
       <c r="I27" t="n">
         <v>9</v>
@@ -2438,10 +2402,8 @@
           <t>4879524432</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 13:27:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.56103009259</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2513,10 +2475,8 @@
           <t>4874360302</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:59:13</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.54112268519</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2580,10 +2540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:35:43</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.52480324074</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2659,10 +2617,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 12:09:10</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.50636574074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2734,10 +2690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:52:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.49487268519</v>
       </c>
       <c r="I32" t="n">
         <v>2</v>
@@ -2813,10 +2767,8 @@
           <t>4878486934</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:46:59</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.49096064815</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2892,10 +2844,8 @@
           <t>4874332723</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:39:08</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.48550925926</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2967,10 +2917,8 @@
           <t>4877084903</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:26:40</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.47685185185</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3042,10 +2990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:11:36</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.46638888889</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3123,10 +3069,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 11:04:12</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.46125</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3204,10 +3148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:20</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.45300925926</v>
       </c>
       <c r="I38" t="n">
         <v>7</v>
@@ -3275,10 +3217,8 @@
           <t>4878531428</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:52:07</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.4528587963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3370,10 +3310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:55</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.45133101852</v>
       </c>
       <c r="I40" t="n">
         <v>10</v>
@@ -3468,10 +3406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:49:42</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.45118055555</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3543,10 +3479,8 @@
           <t>4874323150</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:48:27</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.4503125</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3614,10 +3548,8 @@
           <t>4878498450</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:46:45</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.44913194444</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3685,10 +3617,8 @@
           <t>4878486934</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:44:13</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.44737268519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3756,10 +3686,8 @@
           <t>4878485902</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:43:39</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.44697916666</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3827,10 +3755,8 @@
           <t>4876121380</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:36:34</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.44206018518</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3894,10 +3820,8 @@
           <t>4874332723</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:31:28</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.43851851852</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3957,10 +3881,8 @@
           <t>4878362808</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:22:28</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.43226851852</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4029,10 +3951,8 @@
           <t>4878360495</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:21:09</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.43135416666</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4096,10 +4016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:19:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.43018518519</v>
       </c>
       <c r="I50" t="n">
         <v>5</v>
@@ -4175,10 +4093,8 @@
           <t>4878351190</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:19:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.42993055555</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4242,10 +4158,8 @@
           <t>4878343462</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:17:50</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.42905092592</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4309,10 +4223,8 @@
           <t>4878333943</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:17:22</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.42872685185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4376,10 +4288,8 @@
           <t>4874630791</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:16:09</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.42788194444</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4443,10 +4353,8 @@
           <t>4874573038</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 10:10:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.42381944445</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4518,10 +4426,8 @@
           <t>4874360302</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:49:27</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.40934027778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4593,10 +4499,8 @@
           <t>4874332723</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:47:23</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.40790509259</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4668,10 +4572,8 @@
           <t>4874573038</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:46:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.40707175926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4735,10 +4637,8 @@
           <t>4878149985</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:41:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.40407407407</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4810,10 +4710,8 @@
           <t>4874573038</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:40:50</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.40335648148</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4885,10 +4783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:26:06</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.393125</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4960,10 +4856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:14:13</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.38487268519</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5031,10 +4925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 09:04:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.37802083333</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5102,10 +4994,8 @@
           <t>4877860265</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:28:48</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.35333333333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5169,10 +5059,8 @@
           <t>4875008200</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:24:24</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.35027777778</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5244,10 +5132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:23:42</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.34979166667</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5319,10 +5205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:21:05</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.34797453704</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5386,10 +5270,8 @@
           <t>4877828026</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:20:22</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.34747685185</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5462,10 +5344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 08:08:29</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.33922453703</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5529,10 +5409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:50:02</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.28474537037</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5608,10 +5486,8 @@
           <t>4877599500</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:47:44</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.28314814815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5687,10 +5563,8 @@
           <t>4877598775</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:46:17</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.2821412037</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5766,10 +5640,8 @@
           <t>4874776405</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:17:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.26210648148</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5837,10 +5709,8 @@
           <t>4877562348</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:17:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.2619212963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5908,10 +5778,8 @@
           <t>4877566136</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:16:14</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.26127314815</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5983,10 +5851,8 @@
           <t>4877557127</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:16:01</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.26112268519</v>
       </c>
       <c r="I76" t="n">
         <v>3</v>
@@ -6054,10 +5920,8 @@
           <t>4874268011</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:14:56</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.26037037037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6126,10 +5990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:13:16</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.25921296296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6197,10 +6059,8 @@
           <t>4877547744</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:03:35</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.25248842593</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6268,10 +6128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 06:02:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.25167824074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6339,10 +6197,8 @@
           <t>4877535284</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 05:40:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.23672453704</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6414,10 +6270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 05:38:00</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.23472222222</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6489,10 +6343,8 @@
           <t>4877502620</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 05:08:39</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.21434027778</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6564,10 +6416,8 @@
           <t>4877506558</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 05:07:42</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.21368055556</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6639,10 +6489,8 @@
           <t>4877316783</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:37:37</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.10945601852</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6718,10 +6566,8 @@
           <t>4876385697</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:35:22</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.10789351852</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6797,10 +6643,8 @@
           <t>4877310142</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 02:32:02</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.1055787037</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6876,10 +6720,8 @@
           <t>4877099494</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:24:56</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.05898148148</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6951,10 +6793,8 @@
           <t>4877106875</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:24:21</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.05857638889</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7018,10 +6858,8 @@
           <t>4877084903</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:21:20</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.05648148148</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7085,10 +6923,8 @@
           <t>4877089348</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:21:14</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.05641203704</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7168,10 +7004,8 @@
           <t>4877092111</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:20:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.05597222222</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7247,10 +7081,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:13:12</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.05083333333</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7318,10 +7150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:07:29</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.04686342592</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7385,10 +7215,8 @@
           <t>4874848132</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 01:02:52</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.0436574074</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7456,10 +7284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:41:28</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.0287962963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7527,10 +7353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:39:25</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.02737268519</v>
       </c>
       <c r="I97" t="n">
         <v>4</v>
@@ -7598,10 +7422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:37:13</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.02584490741</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7673,10 +7495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:35:30</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.02465277778</v>
       </c>
       <c r="I99" t="n">
         <v>7</v>
@@ -7748,10 +7568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:34:48</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.02416666667</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7823,10 +7641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:15:27</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.01072916666</v>
       </c>
       <c r="I101" t="n">
         <v>5</v>
@@ -7902,10 +7718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:12:22</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.00858796296</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7977,10 +7791,8 @@
           <t>4876745733</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:11:18</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.00784722222</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8052,10 +7864,8 @@
           <t>4874663949</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:09:56</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.00689814815</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8127,10 +7937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:09:32</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.00662037037</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -8202,10 +8010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:06:17</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.00436342593</v>
       </c>
       <c r="I106" t="n">
         <v>7</v>
@@ -8278,10 +8084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:03:39</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.00253472223</v>
       </c>
       <c r="I107" t="n">
         <v>7</v>
@@ -8353,10 +8157,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 00:03:10</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.00219907407</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8432,10 +8234,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:58:57</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44386.99927083333</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8499,10 +8299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:54:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44386.99594907407</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8566,10 +8364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:48:39</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44386.99211805555</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8637,10 +8433,8 @@
           <t>4876385697</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:34:11</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44386.98207175926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8716,10 +8510,8 @@
           <t>4876385697</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:30:27</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44386.97947916666</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8795,10 +8587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:28:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44386.97778935185</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8866,10 +8656,8 @@
           <t>4875008200</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:27:48</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44386.97763888889</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8933,10 +8721,8 @@
           <t>4875008200</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:27:00</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44386.97708333333</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9000,10 +8786,8 @@
           <t>4874430331</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:25:58</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44386.97636574074</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9067,10 +8851,8 @@
           <t>4876427064</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:25:47</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44386.97623842592</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9139,10 +8921,8 @@
           <t>4876393089</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:22:05</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44386.97366898148</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9218,10 +8998,8 @@
           <t>4876385697</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:21:02</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44386.97293981481</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9297,10 +9075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:20:28</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44386.9725462963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9368,10 +9144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:17:59</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44386.97082175926</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9439,10 +9213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:15:41</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44386.96922453704</v>
       </c>
       <c r="I123" t="n">
         <v>3</v>
@@ -9519,10 +9291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:09:31</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44386.96494212963</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9590,10 +9360,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:08:01</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44386.96390046296</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9665,10 +9433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-09 23:01:57</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44386.9596875</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9744,10 +9510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:58:14</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44386.95710648148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9815,10 +9579,8 @@
           <t>4876179897</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:55:43</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44386.95535879629</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9886,10 +9648,8 @@
           <t>4876178161</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:55:04</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44386.95490740741</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9953,10 +9713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:54:15</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44386.95434027778</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10032,10 +9790,8 @@
           <t>4876164737</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:53:46</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44386.95400462963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10095,10 +9851,8 @@
           <t>4876151361</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:51:23</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44386.95234953704</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10166,10 +9920,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:51:18</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44386.95229166667</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10233,10 +9985,8 @@
           <t>4876137471</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:49:49</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44386.95126157408</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10300,10 +10050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:48:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44386.95048611111</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10371,10 +10119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:47:48</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44386.94986111111</v>
       </c>
       <c r="I136" t="n">
         <v>4</v>
@@ -10442,10 +10188,8 @@
           <t>4876121380</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:47:23</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44386.94957175926</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10509,10 +10253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:46:21</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44386.94885416667</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10572,10 +10314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:46:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44386.94883101852</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10647,10 +10387,8 @@
           <t>4876072871</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:41:44</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44386.94564814815</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10726,10 +10464,8 @@
           <t>4876075747</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:41:04</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44386.94518518518</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10805,10 +10541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:40:31</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44386.94480324074</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10868,10 +10602,8 @@
           <t>4875667447</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:40:24</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44386.94472222222</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10943,10 +10675,8 @@
           <t>4874571152</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:39:53</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44386.94436342592</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11022,10 +10752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:35:19</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44386.94119212963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11085,10 +10813,8 @@
           <t>4874326326</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:33:15</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44386.93975694444</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11148,10 +10874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:29:14</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44386.93696759259</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11227,10 +10951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:25:38</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44386.93446759259</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11298,10 +11020,8 @@
           <t>4875667447</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:23:39</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44386.93309027778</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11365,10 +11085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:18:02</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44386.92918981481</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11444,10 +11162,8 @@
           <t>4875851744</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:13:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44386.92600694444</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11511,10 +11227,8 @@
           <t>4874514772</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-09 22:08:16</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44386.92240740741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11590,10 +11304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:57:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44386.91483796296</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11661,10 +11373,8 @@
           <t>4875660380</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:57:08</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44386.91467592592</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11736,10 +11446,8 @@
           <t>4874509673</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:57:00</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44386.91458333333</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11803,10 +11511,8 @@
           <t>4875660380</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:56:37</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44386.91431712963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11870,10 +11576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:56:28</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44386.91421296296</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11945,10 +11649,8 @@
           <t>4874509673</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:55:12</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44386.91333333333</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12020,10 +11722,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:54:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44386.9131712963</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12095,10 +11795,8 @@
           <t>4875668858</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:51:40</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44386.91087962963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12162,10 +11860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:51:17</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44386.91061342593</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12229,10 +11925,8 @@
           <t>4875667447</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:51:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44386.91049768519</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12304,10 +11998,8 @@
           <t>4875665617</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:50:25</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44386.91001157407</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12371,10 +12063,8 @@
           <t>4875660380</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:48:59</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44386.9090162037</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12446,10 +12136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:48:57</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44386.90899305556</v>
       </c>
       <c r="I165" t="n">
         <v>4</v>
@@ -12517,10 +12205,8 @@
           <t>4875631957</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:45:46</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44386.90678240741</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12597,10 +12283,8 @@
           <t>4875008200</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:44:39</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44386.90600694445</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12668,10 +12352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:43:30</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44386.90520833333</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12739,10 +12421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:43:25</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44386.90515046296</v>
       </c>
       <c r="I169" t="n">
         <v>2</v>
@@ -12814,10 +12494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:42:40</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44386.90462962963</v>
       </c>
       <c r="I170" t="n">
         <v>3</v>
@@ -12877,10 +12555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:32:18</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44386.89743055555</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12944,10 +12620,8 @@
           <t>4875522182</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:32:13</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44386.89737268518</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13023,10 +12697,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:31:18</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44386.89673611111</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13098,10 +12770,8 @@
           <t>4875512100</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:30:28</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44386.89615740741</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13192,10 +12862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:27:12</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44386.89388888889</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13267,10 +12935,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:26:41</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44386.8935300926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13338,10 +13004,8 @@
           <t>4875475456</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:25:30</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44386.89270833333</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13409,10 +13073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:24:49</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44386.89223379629</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13476,10 +13138,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:23:52</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44386.89157407408</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13547,10 +13207,8 @@
           <t>4874362226</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:21:46</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44386.89011574074</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13618,10 +13276,8 @@
           <t>4875445127</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:21:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44386.88971064815</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13685,10 +13341,8 @@
           <t>4874362226</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:20:53</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44386.88950231481</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13756,10 +13410,8 @@
           <t>4875414338</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:18:49</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44386.88806712963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13823,10 +13475,8 @@
           <t>4875411150</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:17:30</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44386.88715277778</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13890,10 +13540,8 @@
           <t>4875223452</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:16:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44386.88627314815</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13961,10 +13609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:15:31</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44386.88577546296</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14028,10 +13674,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:12:16</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44386.88351851852</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14099,10 +13743,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:11:31</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44386.88299768518</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14170,10 +13812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:11:30</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44386.88298611111</v>
       </c>
       <c r="I189" t="n">
         <v>4</v>
@@ -14241,10 +13881,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:09:43</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44386.88174768518</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14316,10 +13954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:06:54</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44386.87979166667</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14383,10 +14019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:05:35</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44386.87887731481</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14454,10 +14088,8 @@
           <t>4875300435</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-09 21:01:57</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44386.87635416666</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14521,10 +14153,8 @@
           <t>4875272381</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:58:31</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44386.87396990741</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14588,10 +14218,8 @@
           <t>4875264119</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:57:32</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44386.87328703704</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14655,10 +14283,8 @@
           <t>4874509673</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:54:44</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44386.8713425926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14722,10 +14348,8 @@
           <t>4875223452</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:52:43</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44386.86994212963</v>
       </c>
       <c r="I197" t="n">
         <v>3</v>
@@ -14802,10 +14426,8 @@
           <t>4875232151</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:52:19</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44386.86966435185</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14869,10 +14491,8 @@
           <t>4875226701</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:52:03</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44386.86947916666</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14948,10 +14568,8 @@
           <t>4875220587</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:51:27</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44386.8690625</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15015,10 +14633,8 @@
           <t>4874573038</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:50:14</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44386.86821759259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15082,10 +14698,8 @@
           <t>4875212130</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:49:57</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44386.86802083333</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15161,10 +14775,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:49:46</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44386.86789351852</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15240,10 +14852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:47:09</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44386.86607638889</v>
       </c>
       <c r="I204" t="n">
         <v>4</v>
@@ -15311,10 +14921,8 @@
           <t>4874773202</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:44:08</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44386.86398148148</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15382,10 +14990,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:43:37</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44386.86362268519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15449,10 +15055,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:41:19</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44386.86202546296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15528,10 +15132,8 @@
           <t>4874773202</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:40:52</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44386.86171296296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15595,10 +15197,8 @@
           <t>4875142537</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:39:27</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44386.86072916666</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15666,10 +15266,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:36:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44386.85847222222</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15746,10 +15344,8 @@
           <t>4875113061</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:35:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44386.85782407408</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15818,10 +15414,8 @@
           <t>4875112119</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:34:51</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44386.85753472222</v>
       </c>
       <c r="I212" t="n">
         <v>5</v>
@@ -15889,10 +15483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:27:41</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44386.85255787037</v>
       </c>
       <c r="I213" t="n">
         <v>4</v>
@@ -15952,10 +15544,8 @@
           <t>4875065022</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:27:41</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44386.85255787037</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16031,10 +15621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:27:05</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44386.8521412037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16111,10 +15699,8 @@
           <t>4875044391</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:25:35</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44386.85109953704</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16174,10 +15760,8 @@
           <t>4874783535</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:24:03</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44386.85003472222</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16253,10 +15837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:23:00</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44386.84930555556</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16333,10 +15915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:20:34</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44386.84761574074</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16412,10 +15992,8 @@
           <t>4875008200</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:20:30</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44386.84756944444</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16491,10 +16069,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:20:02</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44386.84724537037</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16566,10 +16142,8 @@
           <t>4874266041</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:19:59</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44386.84721064815</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16646,10 +16220,8 @@
           <t>4874339430</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:17:23</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44386.84540509259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16725,10 +16297,8 @@
           <t>4874288555</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:17:17</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44386.84533564815</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16800,10 +16370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:14:49</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44386.84362268518</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -16875,10 +16443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:14:10</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44386.8431712963</v>
       </c>
       <c r="I226" t="n">
         <v>4</v>
@@ -16942,10 +16508,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:13:57</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44386.84302083333</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17021,10 +16585,8 @@
           <t>4874422954</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:13:13</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44386.84251157408</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17088,10 +16650,8 @@
           <t>4874951950</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:12:04</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44386.84171296296</v>
       </c>
       <c r="I229" t="n">
         <v>5</v>
@@ -17160,10 +16720,8 @@
           <t>4874955245</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:11:41</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44386.84144675926</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17235,10 +16793,8 @@
           <t>4874955245</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:11:33</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44386.84135416667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17310,10 +16866,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:07:38</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44386.83863425926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17390,10 +16944,8 @@
           <t>4874912364</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:06:00</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44386.8375</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17465,10 +17017,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:02:38</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44386.83516203704</v>
       </c>
       <c r="I234" t="n">
         <v>2</v>
@@ -17540,10 +17090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:01:47</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44386.83457175926</v>
       </c>
       <c r="I235" t="n">
         <v>14</v>
@@ -17607,10 +17155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-09 20:01:34</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44386.8344212963</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17686,10 +17232,8 @@
           <t>4874854972</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:59:09</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44386.83274305556</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17765,10 +17309,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:58:12</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44386.83208333333</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17845,10 +17387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:57:58</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44386.8319212963</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17924,10 +17464,8 @@
           <t>4874848132</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:57:56</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44386.83189814815</v>
       </c>
       <c r="I240" t="n">
         <v>5</v>
@@ -18003,10 +17541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:56:38</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44386.83099537037</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18082,10 +17618,8 @@
           <t>4874823250</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:54:19</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44386.82938657407</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18161,10 +17695,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:53:57</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44386.82913194445</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18232,10 +17764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:53:52</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44386.82907407408</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18307,10 +17837,8 @@
           <t>4874818204</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:53:45</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44386.82899305555</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18382,10 +17910,8 @@
           <t>4874776405</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:53:26</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44386.82877314815</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18453,10 +17979,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:19</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44386.82799768518</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18528,10 +18052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:52:15</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44386.82795138889</v>
       </c>
       <c r="I248" t="n">
         <v>31</v>
@@ -18595,10 +18117,8 @@
           <t>4874810299</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:51:21</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44386.82732638889</v>
       </c>
       <c r="I249" t="n">
         <v>8</v>
@@ -18670,10 +18190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:50:52</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44386.82699074074</v>
       </c>
       <c r="I250" t="n">
         <v>3</v>
@@ -18745,10 +18263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:52</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44386.8262962963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18816,10 +18332,8 @@
           <t>4874608913</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44386.82628472222</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18891,10 +18405,8 @@
           <t>4874795590</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:26</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44386.82599537037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18954,10 +18466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:49:19</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44386.82591435185</v>
       </c>
       <c r="I254" t="n">
         <v>25</v>
@@ -19029,10 +18539,8 @@
           <t>4874782361</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:48:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44386.82506944444</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19096,10 +18604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:47:29</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44386.8246412037</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19171,10 +18677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:47:25</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44386.8245949074</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19246,10 +18750,8 @@
           <t>4874773202</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:47:11</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44386.82443287037</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19317,10 +18819,8 @@
           <t>4874776405</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:46:50</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44386.82418981481</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19396,10 +18896,8 @@
           <t>4874314295</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:45:57</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44386.82357638889</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19475,10 +18973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:45:30</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44386.82326388889</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19555,10 +19051,8 @@
           <t>4874765563</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:45:17</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44386.82311342593</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19630,10 +19124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:45:12</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44386.82305555556</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19710,10 +19202,8 @@
           <t>4874757799</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:44:46</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44386.82275462963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19785,10 +19275,8 @@
           <t>4874761182</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:44:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44386.82256944444</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19860,10 +19348,8 @@
           <t>4874737918</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:43:53</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44386.8221412037</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19935,10 +19421,8 @@
           <t>4874749423</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:43:42</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44386.82201388889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20006,10 +19490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:43:23</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44386.82179398148</v>
       </c>
       <c r="I268" t="n">
         <v>5</v>
@@ -20073,10 +19555,8 @@
           <t>4874748577</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:43:20</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44386.82175925926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20148,10 +19628,8 @@
           <t>4874360188</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:43:02</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44386.82155092592</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20223,10 +19701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:42:27</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44386.82114583333</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20286,10 +19762,8 @@
           <t>4874737918</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:42:07</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44386.82091435185</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20353,10 +19827,8 @@
           <t>4874734838</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:41:38</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44386.8205787037</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20432,10 +19904,8 @@
           <t>4874736312</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:41:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44386.82043981482</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20507,10 +19977,8 @@
           <t>4874729799</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:41:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44386.82034722222</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20582,10 +20050,8 @@
           <t>4874339430</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:58</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44386.82011574074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20657,10 +20123,8 @@
           <t>4874571152</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:51</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44386.82003472222</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20736,10 +20200,8 @@
           <t>4874732529</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44386.81986111111</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20811,10 +20273,8 @@
           <t>4874731820</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:15</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44386.81961805555</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20886,10 +20346,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:02</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44386.81946759259</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20965,10 +20423,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:40:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44386.81944444445</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21040,10 +20496,8 @@
           <t>4874721637</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:39:30</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44386.81909722222</v>
       </c>
       <c r="I282" t="n">
         <v>3</v>
@@ -21107,10 +20561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:39:19</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44386.81896990741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21180,10 +20632,8 @@
           <t>4874714855</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:39:07</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44386.81883101852</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21251,10 +20701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:37:55</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44386.81799768518</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21326,10 +20774,8 @@
           <t>4874694475</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:36:33</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44386.81704861111</v>
       </c>
       <c r="I286" t="n">
         <v>5</v>
@@ -21393,10 +20839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:36:26</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44386.81696759259</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21460,10 +20904,8 @@
           <t>4874670014</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:35:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44386.81655092593</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21541,10 +20983,8 @@
           <t>4874670014</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:35:00</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44386.81597222222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21621,10 +21061,8 @@
           <t>4874689848</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:34:56</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44386.81592592593</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21692,10 +21130,8 @@
           <t>4874622191</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:34:29</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44386.81561342593</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21763,10 +21199,8 @@
           <t>4874678584</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:34:06</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44386.81534722223</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21838,10 +21272,8 @@
           <t>4874360188</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:34:03</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44386.8153125</v>
       </c>
       <c r="I293" t="n">
         <v>3</v>
@@ -21917,10 +21349,8 @@
           <t>4874676610</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:33:16</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44386.81476851852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21980,10 +21410,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:33:05</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44386.8146412037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22059,10 +21487,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:38</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44386.8143287037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22138,10 +21564,8 @@
           <t>4874668930</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:15</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44386.8140625</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22213,10 +21637,8 @@
           <t>4874554200</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:09</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44386.81399305556</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22284,10 +21706,8 @@
           <t>4874663949</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:04</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44386.81393518519</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22347,10 +21767,8 @@
           <t>4874668432</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:32:01</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44386.81390046296</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22414,10 +21832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:31:55</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44386.81383101852</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22481,10 +21897,8 @@
           <t>4874667728</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:31:43</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44386.81369212963</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22548,10 +21962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:31:35</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44386.81359953704</v>
       </c>
       <c r="I303" t="n">
         <v>9</v>
@@ -22619,10 +22031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:31:27</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44386.81350694445</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22690,10 +22100,8 @@
           <t>4874665623</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:48</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44386.81305555555</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22757,10 +22165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:44</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44386.81300925926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22833,10 +22239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:35</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44386.81290509259</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22912,10 +22316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:29</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44386.81283564815</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22979,10 +22381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:30:19</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44386.81271990741</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23055,10 +22455,8 @@
           <t>4874648618</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:29:42</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44386.81229166667</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23126,10 +22524,8 @@
           <t>4874652783</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:29:34</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44386.81219907408</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23197,10 +22593,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:29:20</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44386.81203703704</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23260,10 +22654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:28:48</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44386.81166666667</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23327,10 +22719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:28:27</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44386.81142361111</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23398,10 +22788,8 @@
           <t>4874644332</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:28:11</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44386.81123842593</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23465,10 +22853,8 @@
           <t>4874638240</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:31</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44386.81077546296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23540,10 +22926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:21</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44386.81065972222</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23615,10 +22999,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:13</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44386.81056712963</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23686,10 +23068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:12</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44386.81055555555</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23757,10 +23137,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:27:07</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44386.81049768518</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23828,10 +23206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:26:22</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44386.80997685185</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23907,10 +23283,8 @@
           <t>4874630791</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:26:15</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44386.80989583334</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -23970,10 +23344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:26:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44386.80974537037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24045,10 +23417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:25:40</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44386.80949074074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24108,10 +23478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:25:26</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44386.8093287037</v>
       </c>
       <c r="I325" t="n">
         <v>6</v>
@@ -24187,10 +23555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:25:25</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44386.80931712963</v>
       </c>
       <c r="I326" t="n">
         <v>8</v>
@@ -24254,10 +23620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:25:01</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44386.80903935185</v>
       </c>
       <c r="I327" t="n">
         <v>9</v>
@@ -24325,10 +23689,8 @@
           <t>4874622191</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:24:48</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44386.80888888889</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24398,10 +23760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:24:33</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44386.80871527778</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24473,10 +23833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:24:30</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44386.80868055556</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24540,10 +23898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:23:35</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44386.80804398148</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24615,10 +23971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:23:27</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44386.80795138889</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24682,10 +24036,8 @@
           <t>4874608913</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:23:22</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44386.80789351852</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24749,10 +24101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:48</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44386.8075</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24820,10 +24170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:30</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44386.80729166666</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24887,10 +24235,8 @@
           <t>4874606989</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:29</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44386.80728009259</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24954,10 +24300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:20</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44386.80717592593</v>
       </c>
       <c r="I337" t="n">
         <v>8</v>
@@ -25021,10 +24365,8 @@
           <t>4874606281</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:22:10</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44386.80706018519</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25096,10 +24438,8 @@
           <t>4874605720</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:21:56</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44386.80689814815</v>
       </c>
       <c r="I339" t="n">
         <v>8</v>
@@ -25177,10 +24517,8 @@
           <t>4874598129</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:21:30</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44386.80659722222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25252,10 +24590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:21:26</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44386.80655092592</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25327,10 +24663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:21:04</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44386.80629629629</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25402,10 +24736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:20:50</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44386.80613425926</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25473,10 +24805,8 @@
           <t>4874588206</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:20:47</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44386.80609953704</v>
       </c>
       <c r="I344" t="n">
         <v>9</v>
@@ -25548,10 +24878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:20:13</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44386.80570601852</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25615,10 +24943,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:20:13</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44386.80570601852</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25690,10 +25016,8 @@
           <t>4874591209</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:59</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44386.80554398148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25760,10 +25084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:58</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44386.80553240741</v>
       </c>
       <c r="I348" t="n">
         <v>1</v>
@@ -25835,10 +25157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:46</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44386.80539351852</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25910,10 +25230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:39</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44386.8053125</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25977,10 +25295,8 @@
           <t>4874571152</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:32</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44386.80523148148</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26052,10 +25368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:19:14</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44386.80502314815</v>
       </c>
       <c r="I352" t="n">
         <v>21</v>
@@ -26133,10 +25447,8 @@
           <t>4874578655</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:51</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44386.80475694445</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26200,10 +25512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:37</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44386.80459490741</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26279,10 +25589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:36</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44386.80458333333</v>
       </c>
       <c r="I355" t="n">
         <v>3</v>
@@ -26358,10 +25666,8 @@
           <t>4874573038</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:18:33</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44386.80454861111</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26425,10 +25731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:17:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44386.80399305555</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26500,10 +25804,8 @@
           <t>4874571152</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:17:45</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44386.80399305555</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26579,10 +25881,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:17:21</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44386.80371527778</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26650,10 +25950,8 @@
           <t>4874559898</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:17:12</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44386.80361111111</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26717,10 +26015,8 @@
           <t>4874499587</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:17:11</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44386.80359953704</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26792,10 +26088,8 @@
           <t>4874566026</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:16:34</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44386.8031712963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26873,10 +26167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:16:08</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44386.80287037037</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26952,10 +26244,8 @@
           <t>4874554200</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:15:49</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44386.80265046296</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27029,10 +26319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:15:35</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44386.80248842593</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27104,10 +26392,8 @@
           <t>4874555783</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:15:24</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44386.80236111111</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27171,10 +26457,8 @@
           <t>4874553073</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:15:21</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44386.80232638889</v>
       </c>
       <c r="I367" t="n">
         <v>9</v>
@@ -27238,10 +26522,8 @@
           <t>4874549894</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:15:01</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44386.80209490741</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27317,10 +26599,8 @@
           <t>4874549694</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:57</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44386.80204861111</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27384,10 +26664,8 @@
           <t>4874548953</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:38</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44386.8018287037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27455,10 +26733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:36</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44386.80180555556</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27526,10 +26802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:14:32</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44386.80175925926</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27597,10 +26871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:13:38</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44386.80113425926</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27664,10 +26936,8 @@
           <t>4874537882</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:13:17</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44386.8008912037</v>
       </c>
       <c r="I374" t="n">
         <v>7</v>
@@ -27731,10 +27001,8 @@
           <t>4874540539</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:13:07</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44386.80077546297</v>
       </c>
       <c r="I375" t="n">
         <v>4</v>
@@ -27806,10 +27074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:12:14</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44386.80016203703</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -27873,10 +27139,8 @@
           <t>4874524289</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:50</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44386.79988425926</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27952,10 +27216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:40</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44386.79976851852</v>
       </c>
       <c r="I378" t="n">
         <v>9</v>
@@ -28033,10 +27295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:11:11</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44386.79943287037</v>
       </c>
       <c r="I379" t="n">
         <v>37</v>
@@ -28108,10 +27368,8 @@
           <t>4874525011</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:10:43</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44386.79910879629</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28183,10 +27441,8 @@
           <t>4874514772</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:10:37</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44386.79903935185</v>
       </c>
       <c r="I381" t="n">
         <v>12</v>
@@ -28250,10 +27506,8 @@
           <t>4874314295</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:10:24</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44386.79888888889</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28317,10 +27571,8 @@
           <t>4874509673</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:09:59</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44386.79859953704</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28392,10 +27644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:09:44</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44386.79842592592</v>
       </c>
       <c r="I384" t="n">
         <v>8</v>
@@ -28459,10 +27709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:09:00</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44386.79791666667</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28538,10 +27786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:52</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44386.79782407408</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28605,10 +27851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44386.79763888889</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28680,10 +27924,8 @@
           <t>4874499587</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:21</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44386.79746527778</v>
       </c>
       <c r="I388" t="n">
         <v>5</v>
@@ -28751,10 +27993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44386.79728009259</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28818,10 +28058,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:08:05</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44386.79728009259</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28889,10 +28127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:07:43</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44386.79702546296</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28960,10 +28196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:07:31</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44386.79688657408</v>
       </c>
       <c r="I392" t="n">
         <v>19</v>
@@ -29031,10 +28265,8 @@
           <t>4874493509</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:07:29</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44386.79686342592</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29110,10 +28342,8 @@
           <t>4874501208</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:07:03</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44386.7965625</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29189,10 +28419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:06:33</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44386.79621527778</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29264,10 +28492,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:06:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44386.79597222222</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29343,10 +28569,8 @@
           <t>4874490330</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:06:12</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44386.79597222222</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29414,10 +28638,8 @@
           <t>4874489062</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:06:08</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44386.79592592592</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29485,10 +28707,8 @@
           <t>4874260339</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:59</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44386.79582175926</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29552,10 +28772,8 @@
           <t>4874319031</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44386.79574074074</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29631,10 +28849,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:38</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44386.79557870371</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29698,10 +28914,8 @@
           <t>4874478771</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:36</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44386.79555555555</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29769,10 +28983,8 @@
           <t>4874478367</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:26</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44386.79543981481</v>
       </c>
       <c r="I403" t="n">
         <v>6</v>
@@ -29848,10 +29060,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:21</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44386.79538194444</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29920,10 +29130,8 @@
           <t>4874260339</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:15</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44386.7953125</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29987,10 +29195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:00</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44386.79513888889</v>
       </c>
       <c r="I406" t="n">
         <v>29</v>
@@ -30054,10 +29260,8 @@
           <t>4874486366</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:05:00</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44386.79513888889</v>
       </c>
       <c r="I407" t="n">
         <v>5</v>
@@ -30125,10 +29329,8 @@
           <t>4874323150</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:55</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44386.79508101852</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30196,10 +29398,8 @@
           <t>4874477014</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:52</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44386.7950462963</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30263,10 +29463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:42</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44386.79493055555</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30334,10 +29532,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:39</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44386.79489583334</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30405,10 +29601,8 @@
           <t>4874480752</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:28</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44386.79476851852</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30477,10 +29671,8 @@
           <t>4874480261</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:04:16</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44386.79462962963</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30557,10 +29749,8 @@
           <t>4874464382</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:54</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44386.794375</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30636,10 +29826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:40</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44386.79421296297</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30711,10 +29899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:36</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44386.79416666667</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30786,10 +29972,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:35</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44386.79415509259</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30853,10 +30037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:33</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44386.79413194444</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30925,10 +30107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:30</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44386.79409722222</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30996,10 +30176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:23</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44386.7940162037</v>
       </c>
       <c r="I420" t="n">
         <v>7</v>
@@ -31071,10 +30249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:09</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44386.79385416667</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31146,10 +30322,8 @@
           <t>4874360302</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:03:08</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44386.79384259259</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31213,10 +30387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:52</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44386.7936574074</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31293,10 +30465,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:45</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44386.79357638889</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31364,10 +30534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:44</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44386.79356481481</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31431,10 +30599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44386.79353009259</v>
       </c>
       <c r="I426" t="n">
         <v>66</v>
@@ -31506,10 +30672,8 @@
           <t>4874470778</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:37</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44386.7934837963</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31580,10 +30744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:30</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44386.79340277778</v>
       </c>
       <c r="I428" t="n">
         <v>27</v>
@@ -31655,10 +30817,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:17</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44386.79325231481</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31726,10 +30886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:02</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44386.7930787037</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31793,10 +30951,8 @@
           <t>4874365333</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:02:00</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44386.79305555556</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31860,10 +31016,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:56</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44386.79300925926</v>
       </c>
       <c r="I432" t="n">
         <v>2</v>
@@ -31931,10 +31085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:34</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44386.79275462963</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32002,10 +31154,8 @@
           <t>4874330664</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:28</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44386.79268518519</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32073,10 +31223,8 @@
           <t>4874430331</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:27</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44386.79267361111</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32140,10 +31288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:25</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44386.79265046296</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32207,10 +31353,8 @@
           <t>4874363289</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:09</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44386.79246527778</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32274,10 +31418,8 @@
           <t>4874447628</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:01:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44386.79236111111</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32341,10 +31483,8 @@
           <t>4874319031</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:55</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44386.79230324074</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32408,10 +31548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:53</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44386.7922800926</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32475,10 +31613,8 @@
           <t>4874444893</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:10</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44386.79178240741</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32546,10 +31682,8 @@
           <t>4874260339</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:10</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44386.79178240741</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32625,10 +31759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-09 19:00:06</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44386.79173611111</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32700,10 +31832,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:59</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44386.79165509259</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32775,10 +31905,8 @@
           <t>4874434826</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:47</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44386.7915162037</v>
       </c>
       <c r="I445" t="n">
         <v>3</v>
@@ -32846,10 +31974,8 @@
           <t>4874439199</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:43</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44386.79146990741</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32917,10 +32043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:40</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44386.79143518519</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32984,10 +32108,8 @@
           <t>4874330664</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:39</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44386.79142361111</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33059,10 +32181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:37</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44386.79140046296</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33134,10 +32254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:26</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44386.79127314815</v>
       </c>
       <c r="I450" t="n">
         <v>3</v>
@@ -33213,10 +32331,8 @@
           <t>4874438051</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:16</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44386.79115740741</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33284,10 +32400,8 @@
           <t>4874433151</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:59:02</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44386.79099537037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33355,10 +32469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:55</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44386.79091435186</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33426,10 +32538,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:46</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44386.79081018519</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33497,10 +32607,8 @@
           <t>4874330664</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:46</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44386.79081018519</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33568,10 +32676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:34</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44386.79067129629</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33643,10 +32749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:29</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44386.79061342592</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33714,10 +32818,8 @@
           <t>4874339430</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:28</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44386.79060185186</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33781,10 +32883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:27</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44386.79059027778</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -33861,10 +32961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:58:01</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44386.79028935185</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33928,10 +33026,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:48</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44386.79013888889</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34007,10 +33103,8 @@
           <t>4874430331</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:48</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44386.79013888889</v>
       </c>
       <c r="I462" t="n">
         <v>37</v>
@@ -34078,10 +33172,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:45</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44386.79010416667</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34149,10 +33241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:44</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44386.79009259259</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34220,10 +33310,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:36</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44386.79</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34299,10 +33387,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:24</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44386.78986111111</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34366,10 +33452,8 @@
           <t>4874423467</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:24</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44386.78986111111</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34437,10 +33521,8 @@
           <t>4874423042</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:13</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44386.78973379629</v>
       </c>
       <c r="I468" t="n">
         <v>6</v>
@@ -34504,10 +33586,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:12</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44386.78972222222</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34571,10 +33651,8 @@
           <t>4874422954</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:11</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44386.78971064815</v>
       </c>
       <c r="I470" t="n">
         <v>8</v>
@@ -34650,10 +33728,8 @@
           <t>4874418531</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:57:00</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44386.78958333333</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34721,10 +33797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:59</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44386.78957175926</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34796,10 +33870,8 @@
           <t>4874422089</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:49</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44386.78945601852</v>
       </c>
       <c r="I473" t="n">
         <v>2</v>
@@ -34867,10 +33939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:45</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44386.78940972222</v>
       </c>
       <c r="I474" t="n">
         <v>23</v>
@@ -34946,10 +34016,8 @@
           <t>4874417550</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:34</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44386.78928240741</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35030,10 +34098,8 @@
           <t>4874360188</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:31</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44386.78924768518</v>
       </c>
       <c r="I476" t="n">
         <v>5</v>
@@ -35097,10 +34163,8 @@
           <t>4874425518</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:11</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44386.7890162037</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35168,10 +34232,8 @@
           <t>4874323150</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:08</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44386.78898148148</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35247,10 +34309,8 @@
           <t>4874288555</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:56:01</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44386.78890046296</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35326,10 +34386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:59</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44386.78887731482</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35393,10 +34451,8 @@
           <t>4874420022</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:56</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44386.78884259259</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35468,10 +34524,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:43</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44386.78869212963</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35539,10 +34593,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:42</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44386.78868055555</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35618,10 +34670,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:33</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44386.78857638889</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35689,10 +34739,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:18</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44386.78840277778</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35764,10 +34812,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:14</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44386.78835648148</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35843,10 +34889,8 @@
           <t>4874408325</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:55:12</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44386.78833333333</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35918,10 +34962,8 @@
           <t>4874407507</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:51</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44386.78809027778</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35993,10 +35035,8 @@
           <t>4874271217</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:29</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44386.78783564815</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36064,10 +35104,8 @@
           <t>4874323150</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:26</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44386.78780092593</v>
       </c>
       <c r="I490" t="n">
         <v>5</v>
@@ -36139,10 +35177,8 @@
           <t>4874405733</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:54:05</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44386.78755787037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36212,10 +35248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:58</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44386.78747685185</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36283,10 +35317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:52</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44386.78740740741</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36362,10 +35394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:51</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44386.78739583334</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36442,10 +35472,8 @@
           <t>4874400919</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:41</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44386.78728009259</v>
       </c>
       <c r="I495" t="n">
         <v>8</v>
@@ -36517,10 +35545,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:37</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44386.7872337963</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36584,10 +35610,8 @@
           <t>4874394479</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:33</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44386.7871875</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -36657,10 +35681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:18</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44386.78701388889</v>
       </c>
       <c r="I498" t="n">
         <v>3</v>
@@ -36732,10 +35754,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:17</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44386.78700231481</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36803,10 +35823,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:08</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44386.78689814815</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36874,10 +35892,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:53:06</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44386.786875</v>
       </c>
       <c r="I501" t="n">
         <v>12</v>
@@ -36953,10 +35969,8 @@
           <t>4874330664</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:32</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44386.78648148148</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37028,10 +36042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:26</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44386.78641203704</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37099,10 +36111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:21</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44386.78635416667</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37166,10 +36176,8 @@
           <t>4874391542</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:18</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44386.78631944444</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37241,10 +36249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:52:01</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44386.78612268518</v>
       </c>
       <c r="I506" t="n">
         <v>34</v>
@@ -37308,10 +36314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:55</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44386.78605324074</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37381,10 +36385,8 @@
           <t>4874386612</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:49</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44386.7859837963</v>
       </c>
       <c r="I508" t="n">
         <v>20</v>
@@ -37460,10 +36462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:43</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44386.78591435185</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37531,10 +36531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:27</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44386.78572916667</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37602,10 +36600,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:18</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44386.785625</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37673,10 +36669,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:10</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44386.7855324074</v>
       </c>
       <c r="I512" t="n">
         <v>31</v>
@@ -37752,10 +36746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:05</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44386.78547453704</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -37824,10 +36816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:01</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44386.78542824074</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37895,10 +36885,8 @@
           <t>4874263783</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:51:01</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44386.78542824074</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37974,10 +36962,8 @@
           <t>4874363289</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:58</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44386.78539351852</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -38053,10 +37039,8 @@
           <t>4874382074</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:54</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44386.78534722222</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38124,10 +37108,8 @@
           <t>4874381894</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:50</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44386.78530092593</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38191,10 +37173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:42</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44386.78520833333</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38270,10 +37250,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:39</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44386.78517361111</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38349,10 +37327,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:34</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44386.78511574074</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38424,10 +37400,8 @@
           <t>4874377062</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:23</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44386.78498842593</v>
       </c>
       <c r="I522" t="n">
         <v>3</v>
@@ -38491,10 +37465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:21</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44386.78496527778</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38562,10 +37534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:50:04</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44386.78476851852</v>
       </c>
       <c r="I524" t="n">
         <v>3</v>
@@ -38629,10 +37599,8 @@
           <t>4874369388</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:49</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44386.78459490741</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38704,10 +37672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:48</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44386.78458333333</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38783,10 +37749,8 @@
           <t>4874375040</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:32</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44386.78439814815</v>
       </c>
       <c r="I527" t="n">
         <v>6</v>
@@ -38862,10 +37826,8 @@
           <t>4874371126</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:27</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44386.78434027778</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -38933,10 +37895,8 @@
           <t>4874268147</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:23</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44386.78429398148</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39012,10 +37972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:49:05</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44386.78408564815</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39083,10 +38041,8 @@
           <t>4874367128</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:56</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44386.78398148148</v>
       </c>
       <c r="I531" t="n">
         <v>6</v>
@@ -39154,10 +38110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:51</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44386.78392361111</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39217,10 +38171,8 @@
           <t>4874363289</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:46</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44386.78386574074</v>
       </c>
       <c r="I533" t="n">
         <v>16</v>
@@ -39296,10 +38248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:41</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44386.78380787037</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39371,10 +38321,8 @@
           <t>4874362964</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:37</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44386.78376157407</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39450,10 +38398,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:23</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44386.78359953704</v>
       </c>
       <c r="I536" t="n">
         <v>3</v>
@@ -39521,10 +38467,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:20</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44386.78356481482</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39592,10 +38536,8 @@
           <t>4874362226</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:19</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44386.78355324074</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39671,10 +38613,8 @@
           <t>4874365333</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:12</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44386.78347222223</v>
       </c>
       <c r="I539" t="n">
         <v>5</v>
@@ -39750,10 +38690,8 @@
           <t>4874361820</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:48:08</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44386.78342592593</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39817,10 +38755,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:59</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44386.78332175926</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39896,10 +38832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:35</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44386.78304398148</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39971,10 +38905,8 @@
           <t>4874360302</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:31</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44386.78299768519</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40038,10 +38970,8 @@
           <t>4874353573</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:31</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44386.78299768519</v>
       </c>
       <c r="I544" t="n">
         <v>12</v>
@@ -40113,10 +39043,8 @@
           <t>4874360188</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:28</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44386.78296296296</v>
       </c>
       <c r="I545" t="n">
         <v>5</v>
@@ -40186,10 +39114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:15</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44386.7828125</v>
       </c>
       <c r="I546" t="n">
         <v>6</v>
@@ -40253,10 +39179,8 @@
           <t>4874355621</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:47:04</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44386.78268518519</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40324,10 +39248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:53</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44386.78255787037</v>
       </c>
       <c r="I548" t="n">
         <v>2</v>
@@ -40391,10 +39313,8 @@
           <t>4874348772</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:52</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44386.78254629629</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40458,10 +39378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:45</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44386.78246527778</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40525,10 +39443,8 @@
           <t>4874351536</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:43</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44386.78244212963</v>
       </c>
       <c r="I551" t="n">
         <v>1</v>
@@ -40596,10 +39512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:36</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44386.78236111111</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40676,10 +39590,8 @@
           <t>4874348048</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:35</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44386.78234953704</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40743,10 +39655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:28</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44386.78226851852</v>
       </c>
       <c r="I554" t="n">
         <v>101</v>
@@ -40810,10 +39720,8 @@
           <t>4874350468</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:19</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44386.78216435185</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -40885,10 +39793,8 @@
           <t>4874343620</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44386.78210648148</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40948,10 +39854,8 @@
           <t>4874343558</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:12</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44386.78208333333</v>
       </c>
       <c r="I557" t="n">
         <v>6</v>
@@ -41015,10 +39919,8 @@
           <t>4874347025</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:09</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44386.78204861111</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41094,10 +39996,8 @@
           <t>4874339769</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:46:01</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44386.78195601852</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41173,10 +40073,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:55</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44386.78188657408</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41244,10 +40142,8 @@
           <t>4874339430</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:54</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44386.781875</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41311,10 +40207,8 @@
           <t>4874342229</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:38</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44386.78168981482</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41378,10 +40272,8 @@
           <t>4874345277</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:27</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44386.7815625</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41456,10 +40348,8 @@
           <t>4874334961</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:19</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44386.78146990741</v>
       </c>
       <c r="I564" t="n">
         <v>4</v>
@@ -41535,10 +40425,8 @@
           <t>4874337062</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:17</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44386.78144675926</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41606,10 +40494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:15</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44386.78142361111</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41673,10 +40559,8 @@
           <t>4874263783</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:05</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44386.78130787037</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41752,10 +40636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:45:04</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44386.7812962963</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41831,10 +40713,8 @@
           <t>4874337062</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:58</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44386.78122685185</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41902,10 +40782,8 @@
           <t>4874336329</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:40</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44386.78101851852</v>
       </c>
       <c r="I570" t="n">
         <v>1</v>
@@ -41977,10 +40855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:36</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44386.78097222222</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42048,10 +40924,8 @@
           <t>4874268147</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:34</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44386.78094907408</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42123,10 +40997,8 @@
           <t>4874266812</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:28</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44386.78087962963</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42186,10 +41058,8 @@
           <t>4874332723</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:22</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44386.78081018518</v>
       </c>
       <c r="I574" t="n">
         <v>8</v>
@@ -42249,10 +41119,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:18</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44386.78076388889</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42316,10 +41184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:15</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44386.78072916667</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42383,10 +41249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:44:13</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44386.78070601852</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42462,10 +41326,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:42</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44386.78034722222</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42541,10 +41403,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:41</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44386.78033564815</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42612,10 +41472,8 @@
           <t>4874330664</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:29</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44386.78019675926</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42687,10 +41545,8 @@
           <t>4874323150</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:23</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44386.78012731481</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42766,10 +41622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:19</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44386.78008101852</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42837,10 +41691,8 @@
           <t>4874326326</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:43:04</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44386.77990740741</v>
       </c>
       <c r="I583" t="n">
         <v>24</v>
@@ -42916,10 +41768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:54</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44386.77979166667</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -42987,10 +41837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:50</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44386.77974537037</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43066,10 +41914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:49</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44386.7797337963</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43141,10 +41987,8 @@
           <t>4874321752</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:49</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44386.7797337963</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43220,10 +42064,8 @@
           <t>4874321687</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:48</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44386.77972222222</v>
       </c>
       <c r="I588" t="n">
         <v>4</v>
@@ -43291,10 +42133,8 @@
           <t>4874319031</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:48</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44386.77972222222</v>
       </c>
       <c r="I589" t="n">
         <v>11</v>
@@ -43370,10 +42210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:44</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44386.77967592593</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43449,10 +42287,8 @@
           <t>4874318859</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:44</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44386.77967592593</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43524,10 +42360,8 @@
           <t>4874268147</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:36</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44386.77958333334</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43603,10 +42437,8 @@
           <t>4874318342</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:31</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44386.77952546296</v>
       </c>
       <c r="I593" t="n">
         <v>4</v>
@@ -43682,10 +42514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:28</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44386.77949074074</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43761,10 +42591,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:12</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44386.77930555555</v>
       </c>
       <c r="I595" t="n">
         <v>2</v>
@@ -43836,10 +42664,8 @@
           <t>4874314295</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:42:11</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44386.77929398148</v>
       </c>
       <c r="I596" t="n">
         <v>12</v>
@@ -43916,10 +42742,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:57</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44386.77913194444</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -43987,10 +42811,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:47</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44386.77901620371</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44066,10 +42888,8 @@
           <t>4874316239</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:37</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44386.77890046296</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44145,10 +42965,8 @@
           <t>4874263783</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:35</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44386.77887731481</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44222,10 +43040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:22</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44386.77872685185</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44297,10 +43113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:19</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44386.77869212963</v>
       </c>
       <c r="I602" t="n">
         <v>4</v>
@@ -44376,10 +43190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:07</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44386.77855324074</v>
       </c>
       <c r="I603" t="n">
         <v>17</v>
@@ -44447,10 +43259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:41:02</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44386.77849537037</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44526,10 +43336,8 @@
           <t>4874307118</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:55</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44386.77841435185</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44597,10 +43405,8 @@
           <t>4874304568</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:54</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44386.77840277777</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44672,10 +43478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:40</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44386.77824074074</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44743,10 +43547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:40</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44386.77824074074</v>
       </c>
       <c r="I608" t="n">
         <v>53</v>
@@ -44822,10 +43624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:12</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44386.77791666667</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44901,10 +43701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:03</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44386.7778125</v>
       </c>
       <c r="I610" t="n">
         <v>215</v>
@@ -44980,10 +43778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:02</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44386.77780092593</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45051,10 +43847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:00</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44386.77777777778</v>
       </c>
       <c r="I612" t="n">
         <v>13</v>
@@ -45126,10 +43920,8 @@
           <t>4874288555</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:40:00</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44386.77777777778</v>
       </c>
       <c r="I613" t="n">
         <v>10</v>
@@ -45197,10 +43989,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:59</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44386.7777662037</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45273,10 +44063,8 @@
           <t>4874266041</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:55</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44386.7777199074</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45352,10 +44140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:45</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44386.77760416667</v>
       </c>
       <c r="I616" t="n">
         <v>66</v>
@@ -45419,10 +44205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:40</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44386.7775462963</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45498,10 +44282,8 @@
           <t>4874288555</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:37</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44386.77751157407</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45569,10 +44351,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:35</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44386.77748842593</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45640,10 +44420,8 @@
           <t>4874301532</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:34</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44386.77747685185</v>
       </c>
       <c r="I620" t="n">
         <v>1</v>
@@ -45707,10 +44485,8 @@
           <t>4874263783</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:27</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44386.77739583333</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45770,10 +44546,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:39:20</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44386.77731481481</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45841,10 +44615,8 @@
           <t>4874296636</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:50</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44386.7769675926</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45920,10 +44692,8 @@
           <t>4874296309</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:42</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44386.776875</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45995,10 +44765,8 @@
           <t>4874296247</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:40</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44386.77685185185</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46075,10 +44843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:39</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44386.77684027778</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46146,10 +44912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:34</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44386.77678240741</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46217,10 +44981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:28</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44386.77671296296</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46288,10 +45050,8 @@
           <t>4874288555</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:16</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44386.77657407407</v>
       </c>
       <c r="I629" t="n">
         <v>2</v>
@@ -46363,10 +45123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:15</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44386.7765625</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46442,10 +45200,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:38:06</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44386.77645833333</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46518,10 +45274,8 @@
           <t>4874279234</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:48</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44386.77625</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46589,10 +45343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:37</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44386.77612268519</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46652,10 +45404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:35</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44386.77609953703</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -46731,10 +45481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:24</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44386.77597222223</v>
       </c>
       <c r="I635" t="n">
         <v>80</v>
@@ -46810,10 +45558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:23</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44386.77596064815</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46877,10 +45623,8 @@
           <t>4874283531</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:23</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44386.77596064815</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46944,10 +45688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:21</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44386.7759375</v>
       </c>
       <c r="I638" t="n">
         <v>48</v>
@@ -47011,10 +45753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:19</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44386.77591435185</v>
       </c>
       <c r="I639" t="n">
         <v>1</v>
@@ -47074,10 +45814,8 @@
           <t>4874278206</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:19</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44386.77591435185</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47141,10 +45879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:17</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44386.7758912037</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47217,10 +45953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:37:07</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44386.77577546296</v>
       </c>
       <c r="I642" t="n">
         <v>4</v>
@@ -47288,10 +46022,8 @@
           <t>4874285438</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:55</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44386.77563657407</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47351,10 +46083,8 @@
           <t>4874277166</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:52</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44386.77560185185</v>
       </c>
       <c r="I644" t="n">
         <v>2</v>
@@ -47422,10 +46152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:44</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44386.77550925926</v>
       </c>
       <c r="I645" t="n">
         <v>2</v>
@@ -47497,10 +46225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:43</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44386.77549768519</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47572,10 +46298,8 @@
           <t>4874276648</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:39</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44386.77545138889</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -47651,10 +46375,8 @@
           <t>4874274439</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:30</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44386.77534722222</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -47730,10 +46452,8 @@
           <t>4874276331</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:30</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44386.77534722222</v>
       </c>
       <c r="I649" t="n">
         <v>6</v>
@@ -47809,10 +46529,8 @@
           <t>4874276112</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:24</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44386.77527777778</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -47885,10 +46603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:20</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44386.77523148148</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -47964,10 +46680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:20</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44386.77523148148</v>
       </c>
       <c r="I652" t="n">
         <v>140</v>
@@ -48043,10 +46757,8 @@
           <t>4874280880</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:18</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44386.77520833333</v>
       </c>
       <c r="I653" t="n">
         <v>4</v>
@@ -48118,10 +46830,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:17</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44386.77519675926</v>
       </c>
       <c r="I654" t="n">
         <v>8</v>
@@ -48185,10 +46895,8 @@
           <t>4874280536</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:10</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44386.77511574074</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48260,10 +46968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:07</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44386.77508101852</v>
       </c>
       <c r="I656" t="n">
         <v>323</v>
@@ -48339,10 +47045,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:07</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44386.77508101852</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48406,10 +47110,8 @@
           <t>4874275391</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:05</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44386.77505787037</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48481,10 +47183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:03</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44386.77503472222</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48559,10 +47259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:36:00</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44386.775</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48638,10 +47336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:58</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44386.77497685186</v>
       </c>
       <c r="I661" t="n">
         <v>2</v>
@@ -48713,10 +47409,8 @@
           <t>4874275098</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:58</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44386.77497685186</v>
       </c>
       <c r="I662" t="n">
         <v>2</v>
@@ -48792,10 +47486,8 @@
           <t>4874269998</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:57</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44386.77496527778</v>
       </c>
       <c r="I663" t="n">
         <v>1</v>
@@ -48859,10 +47551,8 @@
           <t>4874264798</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:50</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44386.77488425926</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -48926,10 +47616,8 @@
           <t>4874272822</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:47</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44386.77484953704</v>
       </c>
       <c r="I665" t="n">
         <v>6</v>
@@ -49001,10 +47689,8 @@
           <t>4874269513</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:46</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44386.77483796296</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49072,10 +47758,8 @@
           <t>4874264210</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:35</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44386.77471064815</v>
       </c>
       <c r="I667" t="n">
         <v>12</v>
@@ -49151,10 +47835,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:28</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44386.77462962963</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49214,10 +47896,8 @@
           <t>4874263783</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:24</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44386.77458333333</v>
       </c>
       <c r="I669" t="n">
         <v>9</v>
@@ -49293,10 +47973,8 @@
           <t>4874263749</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:23</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44386.77457175926</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49369,10 +48047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:22</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44386.77456018519</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49448,10 +48124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:16</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44386.77449074074</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49515,10 +48189,8 @@
           <t>4874268147</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:12</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44386.77444444445</v>
       </c>
       <c r="I673" t="n">
         <v>16</v>
@@ -49590,10 +48262,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:12</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44386.77444444445</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49661,10 +48331,8 @@
           <t>4874268011</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:08</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44386.77439814815</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49740,10 +48408,8 @@
           <t>4874271217</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:07</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44386.77438657408</v>
       </c>
       <c r="I676" t="n">
         <v>39</v>
@@ -49816,10 +48482,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:35:05</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44386.77436342592</v>
       </c>
       <c r="I677" t="n">
         <v>1</v>
@@ -49887,10 +48551,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:57</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44386.77427083333</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49954,10 +48616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:49</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44386.77417824074</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50029,10 +48689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:48</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44386.77416666667</v>
       </c>
       <c r="I680" t="n">
         <v>73</v>
@@ -50104,10 +48762,8 @@
           <t>4874262365</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:47</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44386.77415509259</v>
       </c>
       <c r="I681" t="n">
         <v>7</v>
@@ -50171,10 +48827,8 @@
           <t>4874266812</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:39</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44386.7740625</v>
       </c>
       <c r="I682" t="n">
         <v>1</v>
@@ -50250,10 +48904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:38</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44386.77405092592</v>
       </c>
       <c r="I683" t="n">
         <v>3</v>
@@ -50329,10 +48981,8 @@
           <t>4874266728</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:36</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44386.77402777778</v>
       </c>
       <c r="I684" t="n">
         <v>4</v>
@@ -50400,10 +49050,8 @@
           <t>4874265480</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:35</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44386.7740162037</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50467,10 +49115,8 @@
           <t>4874239663</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:31</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44386.77396990741</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50534,10 +49180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:28</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44386.77393518519</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50601,10 +49245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:20</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44386.77384259259</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50672,10 +49314,8 @@
           <t>4874266041</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:19</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44386.77383101852</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50752,10 +49392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:15</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44386.77378472222</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -50827,10 +49465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:12</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44386.77375</v>
       </c>
       <c r="I691" t="n">
         <v>2</v>
@@ -50890,10 +49526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:08</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44386.7737037037</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50961,10 +49595,8 @@
           <t>4874265480</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:06</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44386.77368055555</v>
       </c>
       <c r="I693" t="n">
         <v>19</v>
@@ -51041,10 +49673,8 @@
           <t>4874260789</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:05</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44386.77366898148</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51116,10 +49746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:34:01</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44386.77362268518</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -51183,10 +49811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:56</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44386.77356481482</v>
       </c>
       <c r="I696" t="n">
         <v>2</v>
@@ -51250,10 +49876,8 @@
           <t>4874260339</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:52</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44386.77351851852</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -51317,10 +49941,8 @@
           <t>4874260252</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:50</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44386.77349537037</v>
       </c>
       <c r="I698" t="n">
         <v>2</v>
@@ -51396,10 +50018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:49</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44386.7734837963</v>
       </c>
       <c r="I699" t="n">
         <v>250</v>
@@ -51472,10 +50092,8 @@
           <t>4874260220</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:49</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44386.7734837963</v>
       </c>
       <c r="I700" t="n">
         <v>4</v>
@@ -51552,10 +50170,8 @@
           <t>4874239663</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:39</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44386.77336805555</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51619,10 +50235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:30</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44386.77326388889</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51694,10 +50308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:20</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44386.77314814815</v>
       </c>
       <c r="I703" t="n">
         <v>24</v>
@@ -51773,10 +50385,8 @@
           <t>4874253591</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:19</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44386.77313657408</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51844,10 +50454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:16</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44386.77310185185</v>
       </c>
       <c r="I705" t="n">
         <v>18</v>
@@ -51911,10 +50519,8 @@
           <t>4874253280</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:12</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44386.77305555555</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -51990,10 +50596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:04</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44386.77296296296</v>
       </c>
       <c r="I707" t="n">
         <v>1</v>
@@ -52066,10 +50670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:04</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44386.77296296296</v>
       </c>
       <c r="I708" t="n">
         <v>1</v>
@@ -52145,10 +50747,8 @@
           <t>4874256457</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:03</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44386.77295138889</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52224,10 +50824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:33:01</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44386.77292824074</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52303,10 +50901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:53</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44386.77283564815</v>
       </c>
       <c r="I711" t="n">
         <v>13</v>
@@ -52382,10 +50978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:52</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44386.77282407408</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52457,10 +51051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:51</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44386.7728125</v>
       </c>
       <c r="I713" t="n">
         <v>1</v>
@@ -52536,10 +51128,8 @@
           <t>4874252277</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:47</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44386.77276620371</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
@@ -52611,10 +51201,8 @@
           <t>4874247809</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:45</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44386.77274305555</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52682,10 +51270,8 @@
           <t>4874247768</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:44</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44386.77273148148</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -52757,10 +51343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:30</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44386.77256944445</v>
       </c>
       <c r="I717" t="n">
         <v>475</v>
@@ -52824,10 +51408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:28</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44386.7725462963</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52895,10 +51477,8 @@
           <t>4874239663</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:28</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44386.7725462963</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52974,10 +51554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:27</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44386.77253472222</v>
       </c>
       <c r="I720" t="n">
         <v>129</v>
@@ -53053,10 +51631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:21</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44386.77246527778</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
@@ -53124,10 +51700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:21</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44386.77246527778</v>
       </c>
       <c r="I722" t="n">
         <v>1</v>
@@ -53203,10 +51777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:14</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44386.77238425926</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -53282,10 +51854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:05</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44386.77228009259</v>
       </c>
       <c r="I724" t="n">
         <v>374</v>
@@ -53353,10 +51923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:32:05</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44386.77228009259</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
@@ -53421,10 +51989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H726" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:56</t>
-        </is>
+      <c r="H726" s="1" t="n">
+        <v>44386.77217592593</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
@@ -53500,10 +52066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:55</t>
-        </is>
+      <c r="H727" s="1" t="n">
+        <v>44386.77216435185</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
@@ -53571,10 +52135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:49</t>
-        </is>
+      <c r="H728" s="1" t="n">
+        <v>44386.77209490741</v>
       </c>
       <c r="I728" t="n">
         <v>1</v>
@@ -53634,10 +52196,8 @@
           <t>4874239663</t>
         </is>
       </c>
-      <c r="H729" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:43</t>
-        </is>
+      <c r="H729" s="1" t="n">
+        <v>44386.77202546296</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
@@ -53701,10 +52261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H730" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:42</t>
-        </is>
+      <c r="H730" s="1" t="n">
+        <v>44386.77201388889</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
@@ -53768,10 +52326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H731" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:40</t>
-        </is>
+      <c r="H731" s="1" t="n">
+        <v>44386.77199074074</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
@@ -53848,10 +52404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:31</t>
-        </is>
+      <c r="H732" s="1" t="n">
+        <v>44386.77188657408</v>
       </c>
       <c r="I732" t="n">
         <v>341</v>
@@ -53923,10 +52477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H733" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:29</t>
-        </is>
+      <c r="H733" s="1" t="n">
+        <v>44386.77186342593</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
@@ -53994,10 +52546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H734" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:26</t>
-        </is>
+      <c r="H734" s="1" t="n">
+        <v>44386.77182870371</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
@@ -54065,10 +52615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H735" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:25</t>
-        </is>
+      <c r="H735" s="1" t="n">
+        <v>44386.77181712963</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
@@ -54136,10 +52684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H736" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:21</t>
-        </is>
+      <c r="H736" s="1" t="n">
+        <v>44386.77177083334</v>
       </c>
       <c r="I736" t="n">
         <v>162</v>
@@ -54207,10 +52753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H737" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:21</t>
-        </is>
+      <c r="H737" s="1" t="n">
+        <v>44386.77177083334</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
@@ -54282,10 +52826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:20</t>
-        </is>
+      <c r="H738" s="1" t="n">
+        <v>44386.77175925926</v>
       </c>
       <c r="I738" t="n">
         <v>1</v>
@@ -54353,10 +52895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:19</t>
-        </is>
+      <c r="H739" s="1" t="n">
+        <v>44386.77174768518</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
@@ -54416,10 +52956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H740" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:12</t>
-        </is>
+      <c r="H740" s="1" t="n">
+        <v>44386.77166666667</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
@@ -54495,10 +53033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H741" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:10</t>
-        </is>
+      <c r="H741" s="1" t="n">
+        <v>44386.77164351852</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
@@ -54558,10 +53094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H742" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:07</t>
-        </is>
+      <c r="H742" s="1" t="n">
+        <v>44386.7716087963</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
@@ -54625,10 +53159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H743" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:31:05</t>
-        </is>
+      <c r="H743" s="1" t="n">
+        <v>44386.77158564814</v>
       </c>
       <c r="I743" t="n">
         <v>2</v>
@@ -54700,10 +53232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:53</t>
-        </is>
+      <c r="H744" s="1" t="n">
+        <v>44386.77144675926</v>
       </c>
       <c r="I744" t="n">
         <v>1</v>
@@ -54771,10 +53301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H745" t="inlineStr">
-        <is>
-          <t>2021-07-09 18:30:21</t>
-        </is>
+      <c r="H745" s="1" t="n">
+        <v>44386.77107638889</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
